--- a/temp/每月结算.xlsx
+++ b/temp/每月结算.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cnshirli/studyEN/temp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3F8120-5E88-5245-A7F0-E30D370CE37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12165" activeTab="2"/>
+    <workbookView xWindow="4480" yWindow="1760" windowWidth="28800" windowHeight="12160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="明细" sheetId="1" r:id="rId1"/>
@@ -220,14 +226,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +239,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -247,162 +248,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,194 +273,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -625,251 +297,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -879,61 +309,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1218,22 +604,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="70.75" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2042,21 +1428,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
@@ -2094,21 +1479,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -2231,25 +1615,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
       <c r="B12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15">
       <c r="A13" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="3">
         <f>SUM(B2:B12)</f>
-        <v>1765</v>
+        <v>1865</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/temp/每月结算.xlsx
+++ b/temp/每月结算.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cnshirli/studyEN/temp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3F8120-5E88-5245-A7F0-E30D370CE37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="1760" windowWidth="28800" windowHeight="12160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="明细" sheetId="1" r:id="rId1"/>
     <sheet name="汇总" sheetId="2" r:id="rId2"/>
     <sheet name="按学生汇总" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">明细!$A$1:$G$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>学生</t>
   </si>
@@ -61,173 +58,269 @@
     <t>刘子琦</t>
   </si>
   <si>
+    <t>60分钟类型</t>
+  </si>
+  <si>
+    <t>2024-12-30 19:52 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>￥40</t>
+  </si>
+  <si>
+    <t>词汇课</t>
+  </si>
+  <si>
+    <t>悠然</t>
+  </si>
+  <si>
+    <t>2024-12-29 11:01 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>俞新硕</t>
+  </si>
+  <si>
+    <t>2024-12-29 10:01 《全册-牛津上海版小学英语四年级（下册）》</t>
+  </si>
+  <si>
+    <t>2024-12-28 16:30 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>姚宥庭</t>
+  </si>
+  <si>
     <t>体验类型</t>
   </si>
   <si>
-    <t>2024-11-30 20:33 《高中初级体验词库》</t>
-  </si>
-  <si>
-    <t>￥40</t>
+    <t>2024-12-28 15:33 《初中初级体验词库》</t>
   </si>
   <si>
     <t>体验课</t>
   </si>
   <si>
-    <t>俞新硕</t>
-  </si>
-  <si>
-    <t>60分钟类型</t>
-  </si>
-  <si>
-    <t>2024-11-30 14:59 《全册-牛津上海版小学英语四年级（上册）》</t>
-  </si>
-  <si>
-    <t>词汇课</t>
-  </si>
-  <si>
-    <t>悠然</t>
-  </si>
-  <si>
-    <t>2024-11-30 10:10 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+    <t>2024-12-28 14:25 《全册-牛津上海版小学英语四年级（下册）》</t>
+  </si>
+  <si>
+    <t>2024-12-28 10:53 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>2024-12-27 19:57 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>30分钟类型</t>
+  </si>
+  <si>
+    <t>2024-12-25 19:44 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>￥20</t>
+  </si>
+  <si>
+    <t>王泓俨</t>
+  </si>
+  <si>
+    <t>2024-12-23 21:00 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>2024-12-23 19:57 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>2024-12-22 20:05 《全册-牛津上海版小学英语四年级（上册）》</t>
+  </si>
+  <si>
+    <t>张芷淇</t>
+  </si>
+  <si>
+    <t>2024-12-22 19:05 《初中初级阅读理解》</t>
+  </si>
+  <si>
+    <t>￥45</t>
+  </si>
+  <si>
+    <t>阅读完型语法课</t>
+  </si>
+  <si>
+    <t>乐乐</t>
+  </si>
+  <si>
+    <t>2024-12-22 14:02 《初中初级体验词库》</t>
+  </si>
+  <si>
+    <t>2024-12-22 10:59 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>蒋雨辰</t>
+  </si>
+  <si>
+    <t>2024-12-22 10:02 《高中初级体验词库》</t>
+  </si>
+  <si>
+    <t>2024-12-21 16:27 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>肖凯程</t>
+  </si>
+  <si>
+    <t>2024-12-21 15:31 《高中初级体验词库》</t>
+  </si>
+  <si>
+    <t>2024-12-21 14:26 《全册-牛津上海版小学英语四年级（上册）》</t>
+  </si>
+  <si>
+    <t>2024-12-21 11:02 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>2024-12-21 10:01 《新东方中考英语必备词汇666个》</t>
+  </si>
+  <si>
+    <t>2024-12-20 19:30 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>陈欣怡</t>
+  </si>
+  <si>
+    <t>2024-12-19 19:50 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>2024-12-16 21:00 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>2024-12-16 19:49 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>2024-12-15 19:49 《初中初级阅读理解》</t>
+  </si>
+  <si>
+    <t>2024-12-15 14:59 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>2024-12-15 10:56 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>2024-12-14 17:09 《新东方中考英语必备词汇666个》</t>
+  </si>
+  <si>
+    <t>2024-12-14 16:03 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>2024-12-14 14:30 《全册-牛津上海版小学英语四年级（上册）》</t>
+  </si>
+  <si>
+    <t>2024-12-14 10:58 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>秦涵薇</t>
+  </si>
+  <si>
+    <t>2024-12-14 10:01 《高中初级体验词库》</t>
+  </si>
+  <si>
+    <t>2024-12-13 19:37 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>2024-12-12 19:52 《乱序版-上海市高考英语考纲词汇（2024）》</t>
+  </si>
+  <si>
+    <t>2024-12-11 20:21 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>2024-12-11 19:48 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>2024-12-09 21:29 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>2024-12-09 20:52 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>2024-12-09 19:48 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>2024-12-08 15:03 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>2024-12-08 11:05 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>2024-12-08 10:04 《全册-牛津上海版小学英语四年级（上册）》</t>
+  </si>
+  <si>
+    <t>蔡征洋</t>
+  </si>
+  <si>
+    <t>2024-12-08 09:01 《新版初中考纲单词》</t>
+  </si>
+  <si>
+    <t>2024-12-07 16:31 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>2024-12-07 15:32 《新东方中考英语必备词汇666个》</t>
+  </si>
+  <si>
+    <t>2024-12-07 14:31 《全册-牛津上海版小学英语四年级（上册）》</t>
+  </si>
+  <si>
+    <t>2024-12-07 10:56 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>2024-12-07 10:02 《高中初级体验词库》</t>
   </si>
   <si>
     <t>盛安逸</t>
   </si>
   <si>
-    <t>2024-11-30 09:01 《小学基础阅读理解》</t>
-  </si>
-  <si>
-    <t>￥45</t>
-  </si>
-  <si>
-    <t>阅读完型语法课</t>
-  </si>
-  <si>
-    <t>30分钟类型</t>
-  </si>
-  <si>
-    <t>2024-11-29 20:33 《高中超前单词》</t>
-  </si>
-  <si>
-    <t>￥20</t>
-  </si>
-  <si>
-    <t>2024-11-20 20:59 《高中超前单词》</t>
-  </si>
-  <si>
-    <t>王泓俨</t>
-  </si>
-  <si>
-    <t>2024-11-20 20:04 《高中中级体验词库》</t>
-  </si>
-  <si>
-    <t>2024-11-18 21:23 《高中超前单词》</t>
-  </si>
-  <si>
-    <t>2024-11-18 20:11 《小学中级体验词库》</t>
+    <t>2024-12-07 08:52 《小学基础阅读理解》</t>
+  </si>
+  <si>
+    <t>2024-12-06 20:41 《乱序版-高中英语短语词组&amp;固定搭配》</t>
   </si>
   <si>
     <t>杨礼豪</t>
   </si>
   <si>
-    <t>2024-11-17 20:55 《2023年上海市初中英语考纲词汇》</t>
-  </si>
-  <si>
-    <t>吴一菲</t>
-  </si>
-  <si>
-    <t>2024-11-16 16:15 《初中中级体验词库》</t>
-  </si>
-  <si>
-    <t>蔡征洋</t>
-  </si>
-  <si>
-    <t>2024-11-16 15:02 《新版初中考纲单词》</t>
-  </si>
-  <si>
-    <t>2024-11-16 10:29 《高中高级阅读理解》</t>
-  </si>
-  <si>
-    <t>2024-11-16 09:11 《小学基础阅读理解》</t>
-  </si>
-  <si>
-    <t>2024-11-15 21:18 《高中超前单词》</t>
-  </si>
-  <si>
-    <t>2024-11-15 20:12 《2023年上海市初中英语考纲词汇》</t>
-  </si>
-  <si>
-    <t>2024-11-13 19:42 《高中超前单词》</t>
-  </si>
-  <si>
-    <t>2024-11-11 19:46 《高中超前单词》</t>
-  </si>
-  <si>
-    <t>张芷淇</t>
-  </si>
-  <si>
-    <t>2024-11-10 21:57 《初中初级阅读理解》</t>
-  </si>
-  <si>
-    <t>2024-11-10 15:30 《2023年上海市初中英语考纲词汇》</t>
-  </si>
-  <si>
-    <t>2024-11-09 15:00 《新版初中考纲单词》</t>
-  </si>
-  <si>
-    <t>2024-11-09 10:30 《高中高级阅读理解》</t>
-  </si>
-  <si>
-    <t>2024-11-09 09:04 《小学基础阅读理解》</t>
-  </si>
-  <si>
-    <t>2024-11-08 21:37 《高中超前单词》</t>
-  </si>
-  <si>
-    <t>2024-11-08 20:36 《2023年上海市初中英语考纲词汇》</t>
-  </si>
-  <si>
-    <t>2024-11-08 19:34 《乱序版-2023年上海市初中英语考纲词汇》</t>
-  </si>
-  <si>
-    <t>2024-11-06 21:13 《高中超前单词》</t>
-  </si>
-  <si>
-    <t>2024-11-03 20:07 《2023年上海市初中英语考纲词汇》</t>
-  </si>
-  <si>
-    <t>2024-11-03 10:30 《高中高级完型填空》</t>
-  </si>
-  <si>
-    <t>2024-11-03 09:02 《【新教材】2024秋沪教版（五•四学制）七年级上册》</t>
-  </si>
-  <si>
-    <t>邹熠娜</t>
-  </si>
-  <si>
-    <t>2024-11-02 20:30 《初中中级体验词库》</t>
-  </si>
-  <si>
-    <t>2024-11-02 11:05 《高中高级阅读理解》</t>
-  </si>
-  <si>
-    <t>2024-11-01 21:09 《高中超前单词》</t>
-  </si>
-  <si>
-    <t>2024-11-01 20:09 《2023年上海市初中英语考纲词汇》</t>
-  </si>
-  <si>
-    <t>成交</t>
-  </si>
-  <si>
-    <t>SUM</t>
+    <t>2024-12-06 19:26 《2023年上海市初中英语考纲词汇》</t>
+  </si>
+  <si>
+    <t>2024-12-04 19:42 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>2024-12-02 21:29 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>2024-12-02 20:49 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>2024-12-02 19:43 《上海高考英语考纲词汇（乱序版）》</t>
+  </si>
+  <si>
+    <t>2024-12-01 19:32 《初中初级阅读理解》</t>
+  </si>
+  <si>
+    <t>2024-12-01 11:08 《乱序版-高中英语短语词组&amp;固定搭配》</t>
+  </si>
+  <si>
+    <t>2024-12-01 10:04 《全册-牛津上海版小学英语四年级（上册）》</t>
+  </si>
+  <si>
+    <t>2024-12-01 09:01 《新版初中考纲单词》</t>
+  </si>
+  <si>
+    <t>体验课奖励</t>
+  </si>
+  <si>
+    <t>陈欣怡、</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,28 +332,170 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,12 +504,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -297,29 +718,315 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -604,22 +1311,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="3" max="3" width="62.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -662,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -673,16 +1379,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -693,19 +1399,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -716,22 +1422,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -739,59 +1445,59 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -800,7 +1506,7 @@
         <v>11</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -808,25 +1514,25 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -834,39 +1540,39 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>50</v>
@@ -877,13 +1583,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -892,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -900,19 +1606,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -923,19 +1629,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>55</v>
@@ -946,22 +1652,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
       <c r="F15">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -969,33 +1675,33 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -1004,10 +1710,10 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1015,68 +1721,68 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1084,10 +1790,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
@@ -1096,7 +1802,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>50</v>
@@ -1107,10 +1813,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>45</v>
@@ -1119,7 +1825,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>50</v>
@@ -1130,45 +1836,45 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F23">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F24">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1176,42 +1882,42 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F25">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <v>50</v>
@@ -1222,22 +1928,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1245,42 +1951,42 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F29">
         <v>50</v>
@@ -1291,22 +1997,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F30">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1314,19 +2020,19 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F31">
         <v>50</v>
@@ -1337,7 +2043,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1352,7 +2058,7 @@
         <v>11</v>
       </c>
       <c r="F32">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1360,22 +2066,22 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F33">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1383,67 +2089,666 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F34">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F35">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>40</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51">
+        <v>55</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>25</v>
+      </c>
+      <c r="G52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53">
+        <v>50</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>25</v>
+      </c>
+      <c r="G54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55">
+        <v>50</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56">
+        <v>25</v>
+      </c>
+      <c r="G56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57">
+        <v>50</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58">
+        <v>55</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60">
+        <v>50</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61">
+        <v>50</v>
+      </c>
+      <c r="G61">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B2:B4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1456,43 +2761,48 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>16.5</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1507,98 +2817,98 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>495</v>
+        <v>725</v>
       </c>
       <c r="C2">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>165</v>
+        <v>400</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
+      <c r="A7" t="s">
+        <v>47</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
+      <c r="A9" t="s">
+        <v>77</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
+      <c r="A10" t="s">
+        <v>80</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1606,7 +2916,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>40</v>
@@ -1617,23 +2927,67 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="3">
-        <f>SUM(B2:B12)</f>
-        <v>1865</v>
+        <v>58</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="2:2">
+      <c r="B17" s="2">
+        <f>SUM(B2:B16)</f>
+        <v>2885</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/temp/每月结算.xlsx
+++ b/temp/每月结算.xlsx
@@ -307,7 +307,7 @@
     <t>体验课奖励</t>
   </si>
   <si>
-    <t>陈欣怡、</t>
+    <t>陈欣怡、姚宥庭</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,13 +338,6 @@
     <font>
       <b/>
       <sz val="22"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -495,7 +488,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +498,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,158 +818,159 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1319,8 +1319,8 @@
   <sheetPr/>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1444,7 +1444,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
@@ -2456,7 +2456,7 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B50" t="s">
@@ -2743,7 +2743,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -2795,13 +2795,14 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2871,7 +2872,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B7">
@@ -2915,7 +2916,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B11">
@@ -2926,7 +2927,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12">
@@ -2937,7 +2938,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B13">
@@ -2948,7 +2949,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B14">
@@ -2959,7 +2960,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B15">
@@ -2974,16 +2975,16 @@
         <v>90</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" ht="27" spans="2:2">
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <f>SUM(B2:B16)</f>
-        <v>2885</v>
+        <v>2985</v>
       </c>
     </row>
   </sheetData>
